--- a/database_excel_files/CCMIdToPerformanceId.xlsx
+++ b/database_excel_files/CCMIdToPerformanceId.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0xd1rac\Code\SC2002_Lab_Project\database_excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/c220096_e_ntu_edu_sg/Documents/Desktop/SC2002_Lab_Project-YQ1/database_excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EC9165-8199-41BB-9E00-87145A50D82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B1EC9165-8199-41BB-9E00-87145A50D82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62AA7A71-9030-4BFE-BB09-E40119EAAF0B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>performanceId</t>
   </si>
@@ -33,16 +33,22 @@
     <t>ccmId</t>
   </si>
   <si>
-    <t>ccm1</t>
-  </si>
-  <si>
-    <t>performance1</t>
-  </si>
-  <si>
-    <t>ccm2</t>
-  </si>
-  <si>
-    <t>performance2</t>
+    <t>CCasasddM1</t>
+  </si>
+  <si>
+    <t>YUQUAN</t>
+  </si>
+  <si>
+    <t>CCasdMasd2</t>
+  </si>
+  <si>
+    <t>YUQUANYOU</t>
+  </si>
+  <si>
+    <t>YUQUANa</t>
+  </si>
+  <si>
+    <t>YUQUANYOUa</t>
   </si>
 </sst>
 </file>
@@ -361,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+      <selection activeCell="A4" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,7 +392,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>3</v>
@@ -394,7 +400,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>5</v>
@@ -402,10 +408,50 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B5" t="s" s="0">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
